--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>期初金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>期末本利和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前股海總金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,21 +375,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +406,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -421,384 +429,390 @@
         <v>654539.10600000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>E2</f>
         <v>654539.10600000003</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>F3-A3</f>
+        <v>240059.89399999997</v>
       </c>
       <c r="C3" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>26181.564240000003</v>
+        <v>51886.742000000006</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="0">A3+B3+D3</f>
-        <v>680720.67024000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>946485.74199999997</v>
+      </c>
+      <c r="F3">
+        <v>894599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="1">E3</f>
-        <v>680720.67024000001</v>
+        <v>946485.74199999997</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>F4-A4</f>
+        <v>553514.25800000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D21" si="2">(A4+B4)*C4</f>
-        <v>27228.826809599999</v>
+        <v>87000</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>707949.4970496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1587000</v>
+      </c>
+      <c r="F4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>707949.4970496</v>
+        <v>1587000</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>F5-A5</f>
+        <v>413000</v>
       </c>
       <c r="C5" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>28317.979881984</v>
+        <v>116000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>736267.47693158395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2116000</v>
+      </c>
+      <c r="F5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>736267.47693158395</v>
+        <v>2116000</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>F6-A6</f>
+        <v>384000</v>
       </c>
       <c r="C6" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>29450.699077263358</v>
+        <v>145000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>765718.17600884731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2645000</v>
+      </c>
+      <c r="F6">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>765718.17600884731</v>
+        <v>2645000</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>F7-A7</f>
+        <v>355000</v>
       </c>
       <c r="C7" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>30628.727040353893</v>
+        <v>174000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>796346.90304920124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3174000</v>
+      </c>
+      <c r="F7">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>796346.90304920124</v>
+        <v>3174000</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f>F8-A8</f>
+        <v>326000</v>
       </c>
       <c r="C8" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>31853.876121968049</v>
+        <v>203000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>828200.77917116927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3703000</v>
+      </c>
+      <c r="F8">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>828200.77917116927</v>
+        <v>3703000</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f>F9-A9</f>
+        <v>297000</v>
       </c>
       <c r="C9" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>33128.031166846769</v>
+        <v>232000</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>861328.81033801602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4232000</v>
+      </c>
+      <c r="F9">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>861328.81033801602</v>
+        <v>4232000</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>F10-A10</f>
+        <v>268000</v>
       </c>
       <c r="C10" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>34453.152413520642</v>
+        <v>261000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>895781.96275153663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4761000</v>
+      </c>
+      <c r="F10">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>895781.96275153663</v>
+        <v>4761000</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>F11-A11</f>
+        <v>239000</v>
       </c>
       <c r="C11" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>35831.278510061464</v>
+        <v>290000</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>931613.24126159807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>5290000</v>
+      </c>
+      <c r="F11">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>931613.24126159807</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>5290000</v>
       </c>
       <c r="C12" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>37264.529650463926</v>
+        <v>306820</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>968877.77091206203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5596820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>968877.77091206203</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>5596820</v>
       </c>
       <c r="C13" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>38755.110836482483</v>
+        <v>324615.56</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1007632.8817485445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>5921435.5599999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>1007632.8817485445</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>5921435.5599999996</v>
       </c>
       <c r="C14" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>40305.315269941784</v>
+        <v>343443.26247999998</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1047938.1970184863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>6264878.8224799996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>1047938.1970184863</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>6264878.8224799996</v>
       </c>
       <c r="C15" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>41917.527880739457</v>
+        <v>363362.97170384001</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1089855.7248992259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>6628241.79418384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>1089855.7248992259</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>6628241.79418384</v>
       </c>
       <c r="C16" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>43594.228995969039</v>
+        <v>384438.02406266273</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1133449.9538951949</v>
+        <v>7012679.8182465024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>1133449.9538951949</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>7012679.8182465024</v>
       </c>
       <c r="C17" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>45337.9981558078</v>
+        <v>406735.42945829715</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1178787.9520510028</v>
+        <v>7419415.2477047993</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>1178787.9520510028</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>7419415.2477047993</v>
       </c>
       <c r="C18" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>47151.518082040115</v>
+        <v>430326.08436687838</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1225939.4701330429</v>
+        <v>7849741.3320716778</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>1225939.4701330429</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>7849741.3320716778</v>
       </c>
       <c r="C19" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>49037.578805321718</v>
+        <v>455284.99726015731</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1274977.0489383647</v>
+        <v>8305026.3293318348</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>1274977.0489383647</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>8305026.3293318348</v>
       </c>
       <c r="C20" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>50999.081957534589</v>
+        <v>481691.52710124647</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1325976.1308958994</v>
+        <v>8786717.8564330805</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>1325976.1308958994</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>8786717.8564330805</v>
       </c>
       <c r="C21" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>53039.045235835976</v>
+        <v>509629.6356731187</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1379015.1761317353</v>
+        <v>9296347.4921061993</v>
       </c>
     </row>
   </sheetData>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="8640"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -367,18 +367,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -435,42 +435,42 @@
         <v>654539.10600000003</v>
       </c>
       <c r="B3">
-        <f>F3-A3</f>
-        <v>240059.89399999997</v>
+        <f t="shared" ref="B3:B11" si="0">F3-A3</f>
+        <v>288944.89399999997</v>
       </c>
       <c r="C3" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>51886.742000000006</v>
+        <v>54722.072</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">A3+B3+D3</f>
-        <v>946485.74199999997</v>
+        <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
+        <v>998206.07200000004</v>
       </c>
       <c r="F3">
-        <v>894599</v>
+        <v>943484</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <f t="shared" ref="A4:A21" si="1">E3</f>
-        <v>946485.74199999997</v>
+        <f t="shared" ref="A4:A21" si="2">E3</f>
+        <v>998206.07200000004</v>
       </c>
       <c r="B4">
-        <f>F4-A4</f>
-        <v>553514.25800000003</v>
+        <f t="shared" si="0"/>
+        <v>501793.92799999996</v>
       </c>
       <c r="C4" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D21" si="2">(A4+B4)*C4</f>
+        <f t="shared" ref="D4:D21" si="3">(A4+B4)*C4</f>
         <v>87000</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1587000</v>
       </c>
       <c r="F4">
@@ -479,22 +479,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1587000</v>
       </c>
       <c r="B5">
-        <f>F5-A5</f>
+        <f t="shared" si="0"/>
         <v>413000</v>
       </c>
       <c r="C5" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116000</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2116000</v>
       </c>
       <c r="F5">
@@ -503,22 +503,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2116000</v>
       </c>
       <c r="B6">
-        <f>F6-A6</f>
+        <f t="shared" si="0"/>
         <v>384000</v>
       </c>
       <c r="C6" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145000</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2645000</v>
       </c>
       <c r="F6">
@@ -527,22 +527,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2645000</v>
       </c>
       <c r="B7">
-        <f>F7-A7</f>
+        <f t="shared" si="0"/>
         <v>355000</v>
       </c>
       <c r="C7" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174000</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3174000</v>
       </c>
       <c r="F7">
@@ -551,22 +551,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3174000</v>
       </c>
       <c r="B8">
-        <f>F8-A8</f>
+        <f t="shared" si="0"/>
         <v>326000</v>
       </c>
       <c r="C8" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>203000</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3703000</v>
       </c>
       <c r="F8">
@@ -575,22 +575,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3703000</v>
       </c>
       <c r="B9">
-        <f>F9-A9</f>
+        <f t="shared" si="0"/>
         <v>297000</v>
       </c>
       <c r="C9" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>232000</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4232000</v>
       </c>
       <c r="F9">
@@ -599,22 +599,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4232000</v>
       </c>
       <c r="B10">
-        <f>F10-A10</f>
+        <f t="shared" si="0"/>
         <v>268000</v>
       </c>
       <c r="C10" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261000</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4761000</v>
       </c>
       <c r="F10">
@@ -623,22 +623,22 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4761000</v>
       </c>
       <c r="B11">
-        <f>F11-A11</f>
+        <f t="shared" si="0"/>
         <v>239000</v>
       </c>
       <c r="C11" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290000</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5290000</v>
       </c>
       <c r="F11">
@@ -647,171 +647,171 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5290000</v>
       </c>
       <c r="C12" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306820</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5596820</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5596820</v>
       </c>
       <c r="C13" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324615.56</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5921435.5599999996</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5921435.5599999996</v>
       </c>
       <c r="C14" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>343443.26247999998</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6264878.8224799996</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6264878.8224799996</v>
       </c>
       <c r="C15" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363362.97170384001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6628241.79418384</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6628241.79418384</v>
       </c>
       <c r="C16" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384438.02406266273</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7012679.8182465024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7012679.8182465024</v>
       </c>
       <c r="C17" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>406735.42945829715</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7419415.2477047993</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7419415.2477047993</v>
       </c>
       <c r="C18" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430326.08436687838</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7849741.3320716778</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7849741.3320716778</v>
       </c>
       <c r="C19" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455284.99726015731</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8305026.3293318348</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8305026.3293318348</v>
       </c>
       <c r="C20" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>481691.52710124647</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8786717.8564330805</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8786717.8564330805</v>
       </c>
       <c r="C21" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>509629.6356731187</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9296347.4921061993</v>
       </c>
     </row>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -367,7 +367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -436,31 +436,31 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" si="0">F3-A3</f>
-        <v>288944.89399999997</v>
+        <v>351091.89399999997</v>
       </c>
       <c r="C3" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>54722.072</v>
+        <v>58326.598000000005</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
-        <v>998206.07200000004</v>
+        <v>1063957.598</v>
       </c>
       <c r="F3">
-        <v>943484</v>
+        <v>1005631</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="2">E3</f>
-        <v>998206.07200000004</v>
+        <v>1063957.598</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>501793.92799999996</v>
+        <v>436042.402</v>
       </c>
       <c r="C4" s="1">
         <v>5.8000000000000003E-2</v>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -439,15 +439,15 @@
         <v>351091.89399999997</v>
       </c>
       <c r="C3" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>58326.598000000005</v>
+        <v>40225.24</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
-        <v>1063957.598</v>
+        <v>1045856.24</v>
       </c>
       <c r="F3">
         <v>1005631</v>
@@ -456,22 +456,22 @@
     <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="2">E3</f>
-        <v>1063957.598</v>
+        <v>1045856.24</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>436042.402</v>
+        <v>454143.76</v>
       </c>
       <c r="C4" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D21" si="3">(A4+B4)*C4</f>
-        <v>87000</v>
+        <v>60000</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1587000</v>
+        <v>1560000</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -480,22 +480,22 @@
     <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>1587000</v>
+        <v>1560000</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>413000</v>
+        <v>440000</v>
       </c>
       <c r="C5" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>116000</v>
+        <v>80000</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2116000</v>
+        <v>2080000</v>
       </c>
       <c r="F5">
         <v>2000000</v>
@@ -504,22 +504,22 @@
     <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>2116000</v>
+        <v>2080000</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>384000</v>
+        <v>420000</v>
       </c>
       <c r="C6" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>2645000</v>
+        <v>2600000</v>
       </c>
       <c r="F6">
         <v>2500000</v>
@@ -528,22 +528,22 @@
     <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="2"/>
-        <v>2645000</v>
+        <v>2600000</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>355000</v>
+        <v>400000</v>
       </c>
       <c r="C7" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>174000</v>
+        <v>120000</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>3174000</v>
+        <v>3120000</v>
       </c>
       <c r="F7">
         <v>3000000</v>
@@ -552,22 +552,22 @@
     <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>3174000</v>
+        <v>3120000</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>326000</v>
+        <v>380000</v>
       </c>
       <c r="C8" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>203000</v>
+        <v>140000</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>3703000</v>
+        <v>3640000</v>
       </c>
       <c r="F8">
         <v>3500000</v>
@@ -576,22 +576,22 @@
     <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>3703000</v>
+        <v>3640000</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>297000</v>
+        <v>360000</v>
       </c>
       <c r="C9" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>232000</v>
+        <v>160000</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>4232000</v>
+        <v>4160000</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -600,22 +600,22 @@
     <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>4232000</v>
+        <v>4160000</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>268000</v>
+        <v>340000</v>
       </c>
       <c r="C10" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>261000</v>
+        <v>180000</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>4761000</v>
+        <v>4680000</v>
       </c>
       <c r="F10">
         <v>4500000</v>
@@ -624,22 +624,22 @@
     <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>4761000</v>
+        <v>4680000</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>239000</v>
+        <v>320000</v>
       </c>
       <c r="C11" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>5290000</v>
+        <v>5200000</v>
       </c>
       <c r="F11">
         <v>5000000</v>
@@ -648,171 +648,171 @@
     <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>5290000</v>
+        <v>5200000</v>
       </c>
       <c r="C12" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>306820</v>
+        <v>208000</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>5596820</v>
+        <v>5408000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>5596820</v>
+        <v>5408000</v>
       </c>
       <c r="C13" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>324615.56</v>
+        <v>216320</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>5921435.5599999996</v>
+        <v>5624320</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>5921435.5599999996</v>
+        <v>5624320</v>
       </c>
       <c r="C14" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>343443.26247999998</v>
+        <v>224972.80000000002</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>6264878.8224799996</v>
+        <v>5849292.7999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>6264878.8224799996</v>
+        <v>5849292.7999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>363362.97170384001</v>
+        <v>233971.712</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>6628241.79418384</v>
+        <v>6083264.5120000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>6628241.79418384</v>
+        <v>6083264.5120000001</v>
       </c>
       <c r="C16" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>384438.02406266273</v>
+        <v>243330.58048</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>7012679.8182465024</v>
+        <v>6326595.0924800001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>7012679.8182465024</v>
+        <v>6326595.0924800001</v>
       </c>
       <c r="C17" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>406735.42945829715</v>
+        <v>253063.80369920001</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>7419415.2477047993</v>
+        <v>6579658.8961792002</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>7419415.2477047993</v>
+        <v>6579658.8961792002</v>
       </c>
       <c r="C18" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>430326.08436687838</v>
+        <v>263186.35584716802</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>7849741.3320716778</v>
+        <v>6842845.2520263679</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>7849741.3320716778</v>
+        <v>6842845.2520263679</v>
       </c>
       <c r="C19" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>455284.99726015731</v>
+        <v>273713.81008105475</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>8305026.3293318348</v>
+        <v>7116559.0621074224</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>8305026.3293318348</v>
+        <v>7116559.0621074224</v>
       </c>
       <c r="C20" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>481691.52710124647</v>
+        <v>284662.3624842969</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>8786717.8564330805</v>
+        <v>7401221.4245917192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>8786717.8564330805</v>
+        <v>7401221.4245917192</v>
       </c>
       <c r="C21" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>509629.6356731187</v>
+        <v>296048.85698366875</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>9296347.4921061993</v>
+        <v>7697270.2815753883</v>
       </c>
     </row>
   </sheetData>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -367,7 +367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -436,31 +436,31 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" si="0">F3-A3</f>
-        <v>351091.89399999997</v>
+        <v>374261.89399999997</v>
       </c>
       <c r="C3" s="1">
         <v>0.04</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>40225.24</v>
+        <v>41152.04</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
-        <v>1045856.24</v>
+        <v>1069953.04</v>
       </c>
       <c r="F3">
-        <v>1005631</v>
+        <v>1028801</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="2">E3</f>
-        <v>1045856.24</v>
+        <v>1069953.04</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>454143.76</v>
+        <v>430046.95999999996</v>
       </c>
       <c r="C4" s="1">
         <v>0.04</v>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="8640"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -88,11 +88,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,18 +370,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -435,32 +438,32 @@
         <v>654539.10600000003</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">F3-A3</f>
-        <v>374261.89399999997</v>
+        <f t="shared" ref="B3:B16" si="0">F3-A3</f>
+        <v>571149.89399999997</v>
       </c>
       <c r="C3" s="1">
         <v>0.04</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>41152.04</v>
+        <v>49027.56</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
-        <v>1069953.04</v>
-      </c>
-      <c r="F3">
-        <v>1028801</v>
+        <v>1274716.56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1225689</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="2">E3</f>
-        <v>1069953.04</v>
+        <v>1274716.56</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>430046.95999999996</v>
+        <v>225283.43999999994</v>
       </c>
       <c r="C4" s="1">
         <v>0.04</v>
@@ -650,169 +653,219 @@
         <f t="shared" si="2"/>
         <v>5200000</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
       <c r="C12" s="1">
         <v>0.04</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>208000</v>
+        <v>220000</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>5408000</v>
+        <v>5720000</v>
+      </c>
+      <c r="F12">
+        <v>5500000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>5408000</v>
+        <v>5720000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>280000</v>
       </c>
       <c r="C13" s="1">
         <v>0.04</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>216320</v>
+        <v>240000</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>5624320</v>
+        <v>6240000</v>
+      </c>
+      <c r="F13">
+        <v>6000000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>5624320</v>
+        <v>6240000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>260000</v>
       </c>
       <c r="C14" s="1">
         <v>0.04</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>224972.80000000002</v>
+        <v>260000</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>5849292.7999999998</v>
+        <v>6760000</v>
+      </c>
+      <c r="F14">
+        <v>6500000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>5849292.7999999998</v>
+        <v>6760000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
       <c r="C15" s="1">
         <v>0.04</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>233971.712</v>
+        <v>280000</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>6083264.5120000001</v>
+        <v>7280000</v>
+      </c>
+      <c r="F15">
+        <v>7000000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>6083264.5120000001</v>
+        <v>7280000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>220000</v>
       </c>
       <c r="C16" s="1">
         <v>0.04</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>243330.58048</v>
+        <v>300000</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>6326595.0924800001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>7800000</v>
+      </c>
+      <c r="F16">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>6326595.0924800001</v>
+        <v>7800000</v>
       </c>
       <c r="C17" s="1">
         <v>0.04</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>253063.80369920001</v>
+        <v>312000</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>6579658.8961792002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>8112000</v>
+      </c>
+      <c r="F17">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>6579658.8961792002</v>
+        <v>8112000</v>
       </c>
       <c r="C18" s="1">
         <v>0.04</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>263186.35584716802</v>
+        <v>324480</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>6842845.2520263679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>8436480</v>
+      </c>
+      <c r="F18">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>6842845.2520263679</v>
+        <v>8436480</v>
       </c>
       <c r="C19" s="1">
         <v>0.04</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>273713.81008105475</v>
+        <v>337459.20000000001</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>7116559.0621074224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>8773939.1999999993</v>
+      </c>
+      <c r="F19">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>7116559.0621074224</v>
+        <v>8773939.1999999993</v>
       </c>
       <c r="C20" s="1">
         <v>0.04</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>284662.3624842969</v>
+        <v>350957.56799999997</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>7401221.4245917192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>9124896.7679999992</v>
+      </c>
+      <c r="F20">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>7401221.4245917192</v>
+        <v>9124896.7679999992</v>
       </c>
       <c r="C21" s="1">
         <v>0.04</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>296048.85698366875</v>
+        <v>364995.87071999995</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>7697270.2815753883</v>
+        <v>9489892.6387199983</v>
+      </c>
+      <c r="F21">
+        <v>9500000</v>
       </c>
     </row>
   </sheetData>

--- a/home/存股/複利計算.xlsx
+++ b/home/存股/複利計算.xlsx
@@ -370,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -439,31 +439,31 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B16" si="0">F3-A3</f>
-        <v>571149.89399999997</v>
+        <v>627820.89399999997</v>
       </c>
       <c r="C3" s="1">
         <v>0.04</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>49027.56</v>
+        <v>51294.400000000001</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="1">A3+B3+D3</f>
-        <v>1274716.56</v>
+        <v>1333654.3999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>1225689</v>
+        <v>1282360</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="2">E3</f>
-        <v>1274716.56</v>
+        <v>1333654.3999999999</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>225283.43999999994</v>
+        <v>166345.60000000009</v>
       </c>
       <c r="C4" s="1">
         <v>0.04</v>
